--- a/Question_Sets/Role-specific skills/Social Media Community Management.xlsx
+++ b/Question_Sets/Role-specific skills/Social Media Community Management.xlsx
@@ -16,23 +16,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'As the social media community manager for your local sports team, you’ve been asked to increase the level of user engagement in your website’s forums. You have received feedback that much of the communication in the forum is too formal.How should you look to achieve this?', 'ques_type': 2, 'options': ['Provide personalized responses.', 'Avoid interacting with users in the forums.', 'Only respond when directly addressed.', 'Post as frequently as possible.'], 'score': 'Provide personalized responses.'}, {'title': 'You’ve been hired to encourage customers to self-serve technical issues on your company’s forums instead of calling in. Currently, the click-through rates on articles that a bot recommends to customers seeking support are non-existent.What action should you take?', 'ques_type': 2, 'options': ['Answer all inquiries personally and close the conversation once resolved.', 'Send customers links to the forums where they can self-serve their technical issues.', 'Answer all inquiries personally and provide relevant self-serve links in your responses.', 'Program the bot to recommend a wider range of self-serve articles.'], 'score': 'Answer all inquiries personally and provide relevant self-serve links in your responses.'}, {'title': 'You’ve just been hired as a social media community manager for a large retail company. Your boss has asked you to investigate how to get more users to engage with the brand and post in their forums.What action should you take first?', 'ques_type': 2, 'options': ['Introduce yourself to power users, providing them with talking points and letting them drive conversation.', 'Introduce yourself in the forum, engaging users personally and answering their questions.', 'Post according to the current schedule, using text and monitoring responses.', 'Research and review the type of content your users post, speaking with moderators and administrators.'], 'score': 'Research and review the type of content your users post, speaking with moderators and administrators.'}, {'title': 'As your company’s social media community manager, your manager has asked you to communicate the activity level in your social media posts.Which KPIs should you use to show the success of your forums?', 'ques_type': 15, 'options': ['Click-through rate', 'Number of comments', 'Number of impressions', 'Reach', 'Active engagement rate', 'Number of followers', 'Number of likes', 'Conversion rate'], 'score': ['Reach', 'Active engagement rate']}]</t>
+    <t>questions = [
+    {
+        "title": "As the social media community manager for your local sports team, you\u2019ve been asked to increase the level of user engagement in your website\u2019s forums. You have received feedback that much of the communication in the forum is too formal.How should you look to achieve this?",
+        "ques_type": 2,
+        "options": [
+            "Provide personalized responses.",
+            "Avoid interacting with users in the forums.",
+            "Only respond when directly addressed.",
+            "Post as frequently as possible."
+        ],
+        "score": "Provide personalized responses."
+    },
+    {
+        "title": "You\u2019ve been hired to encourage customers to self-serve technical issues on your company\u2019s forums instead of calling in. Currently, the click-through rates on articles that a bot recommends to customers seeking support are non-existent.What action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Answer all inquiries personally and close the conversation once resolved.",
+            "Send customers links to the forums where they can self-serve their technical issues.",
+            "Answer all inquiries personally and provide relevant self-serve links in your responses.",
+            "Program the bot to recommend a wider range of self-serve articles."
+        ],
+        "score": "Answer all inquiries personally and provide relevant self-serve links in your responses."
+    },
+    {
+        "title": "You\u2019ve just been hired as a social media community manager for a large retail company. Your boss has asked you to investigate how to get more users to engage with the brand and post in their forums.What action should you take first?",
+        "ques_type": 2,
+        "options": [
+            "Introduce yourself to power users, providing them with talking points and letting them drive conversation.",
+            "Introduce yourself in the forum, engaging users personally and answering their questions.",
+            "Post according to the current schedule, using text and monitoring responses.",
+            "Research and review the type of content your users post, speaking with moderators and administrators."
+        ],
+        "score": "Research and review the type of content your users post, speaking with moderators and administrators."
+    },
+    {
+        "title": "As your company\u2019s social media community manager, your manager has asked you to communicate the activity level in your social media posts.Which KPIs should you use to show the success of your forums?",
+        "ques_type": 15,
+        "options": [
+            "Click-through rate",
+            "Number of comments",
+            "Number of impressions",
+            "Reach",
+            "Active engagement rate",
+            "Number of followers",
+            "Number of likes",
+            "Conversion rate"
+        ],
+        "score": [
+            "Reach",
+            "Active engagement rate"
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +100,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +400,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
